--- a/Output.xlsx
+++ b/Output.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mert_\OneDrive\Masaüstü\Veri Madenciliği en final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mert_\Downloads\Veri Madenciliği en final2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5FFB7A-8F73-4430-B9AB-9D9F4749B176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B58E103-C31F-47C5-8C8C-7EB736DA48D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tahmin Sonuçları" sheetId="1" r:id="rId1"/>
-    <sheet name="Risk Özeti" sheetId="2" r:id="rId2"/>
+    <sheet name="Forecast Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Risk Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,28 +23,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="168">
   <si>
-    <t>Ülke</t>
-  </si>
-  <si>
-    <t>Sıcaklık_2013</t>
-  </si>
-  <si>
-    <t>Tahmini_Sıcaklık_2100</t>
-  </si>
-  <si>
-    <t>Fark (°C)</t>
-  </si>
-  <si>
-    <t>Risk Seviyesi</t>
-  </si>
-  <si>
-    <t>Kıta</t>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Temperature_2013</t>
+  </si>
+  <si>
+    <t>Predicted_2100</t>
+  </si>
+  <si>
+    <t>Difference (°C)</t>
+  </si>
+  <si>
+    <t>Risk Level</t>
+  </si>
+  <si>
+    <t>Continent</t>
   </si>
   <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>Çok Yüksek Risk</t>
+    <t>Very High Risk</t>
   </si>
   <si>
     <t>Europe</t>
@@ -146,7 +146,7 @@
     <t>Jordan</t>
   </si>
   <si>
-    <t>Yüksek Risk</t>
+    <t>High Risk</t>
   </si>
   <si>
     <t>New Zealand</t>
@@ -176,7 +176,7 @@
     <t>Zambia</t>
   </si>
   <si>
-    <t>Orta Risk</t>
+    <t>Average Risk</t>
   </si>
   <si>
     <t>Kiribati</t>
@@ -239,7 +239,7 @@
     <t>Grenada</t>
   </si>
   <si>
-    <t>Düşük Risk</t>
+    <t>Low Risk</t>
   </si>
   <si>
     <t>Lesotho</t>
@@ -524,7 +524,7 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>Ülke Sayısı</t>
+    <t>Number of Countries</t>
   </si>
 </sst>
 </file>
@@ -890,17 +890,16 @@
   <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3955,10 +3954,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
